--- a/capstone_project_selenium/ExcellData/data.xlsx
+++ b/capstone_project_selenium/ExcellData/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="12960" windowHeight="3684"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="12960" windowHeight="3684" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase1" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Expected</t>
   </si>
@@ -30,7 +30,49 @@
     <t>Data2</t>
   </si>
   <si>
-    <t>Hello</t>
+    <t>APPLE iPhone 14 (Midnight, 128 GB)</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 14 ( 128 GB Storage ) Online at Best Price On Flipkart.com</t>
+  </si>
+  <si>
+    <t>67,999</t>
+  </si>
+  <si>
+    <t>Search Data</t>
+  </si>
+  <si>
+    <t>Iphone14</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/viewcart?exploreMode=true&amp;preference=FLIPKART</t>
+  </si>
+  <si>
+    <t>APPLE iPhone 14</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.com/account/login?ret=%2Faccount%2F%3Frd%3D0%26link%3Dhome_account</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Missing Cart items?</t>
+  </si>
+  <si>
+    <t>6207712568</t>
   </si>
 </sst>
 </file>
@@ -81,13 +123,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -390,36 +437,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="2" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="b">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -432,7 +493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -441,7 +504,7 @@
     <col min="3" max="3" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -452,56 +515,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="b">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.77734375" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="b">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -515,7 +587,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,17 +608,20 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -556,7 +631,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,12 +654,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="b">
+        <v>15</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
     </row>
